--- a/excel/students-old.xlsx
+++ b/excel/students-old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cipleu\Documents\IULIA\SCOALA\facultate\Year 4 Semester 2\KBS\Lab\Project\University-Ontology\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2892D4B-C0AE-4E77-83C3-FDB692533D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8131C-7699-4B0E-8E26-B1021E99FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,13 +1099,13 @@
       <c r="D2" s="3">
         <v>1.6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>4.3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>2.6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1119,16 +1119,16 @@
       <c r="C3" t="s">
         <v>213</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>3.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>4.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4.8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -1142,16 +1142,16 @@
       <c r="C4" t="s">
         <v>215</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <v>5.5</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1165,16 +1165,16 @@
       <c r="C5" t="s">
         <v>214</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>3.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1.7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1188,16 +1188,16 @@
       <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>1.7</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1211,16 +1211,16 @@
       <c r="C7" t="s">
         <v>215</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7">
-        <v>5.5</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1234,16 +1234,16 @@
       <c r="C8" t="s">
         <v>215</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.5</v>
       </c>
-      <c r="F8">
-        <v>5.5</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1257,16 +1257,16 @@
       <c r="C9" t="s">
         <v>215</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.5</v>
       </c>
-      <c r="F9">
-        <v>5.5</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G9" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1280,16 +1280,16 @@
       <c r="C10" t="s">
         <v>213</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>3.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>4.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>4.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -1303,16 +1303,16 @@
       <c r="C11" t="s">
         <v>216</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>8.6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>10.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>10.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       <c r="C12" t="s">
         <v>214</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>3.8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>1.7</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1349,16 +1349,16 @@
       <c r="C13" t="s">
         <v>216</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>8.6</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>10.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>10.7</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1372,16 +1372,16 @@
       <c r="C14" t="s">
         <v>215</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.5</v>
       </c>
-      <c r="F14">
-        <v>5.5</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1395,16 +1395,16 @@
       <c r="C15" t="s">
         <v>217</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>3.4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>4.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>1.7</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1421,13 +1421,13 @@
       <c r="D16" s="3">
         <v>1.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>4.3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2.6</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1441,16 +1441,16 @@
       <c r="C17" t="s">
         <v>217</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>3.4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>4.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>1.7</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1464,16 +1464,16 @@
       <c r="C18" t="s">
         <v>216</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>8.6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>10.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>10.7</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1487,16 +1487,16 @@
       <c r="C19" t="s">
         <v>214</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>3.8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1.7</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1510,16 +1510,16 @@
       <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>3.4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>4.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>1.7</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1533,16 +1533,16 @@
       <c r="C21" t="s">
         <v>217</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>3.4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>4.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>1.7</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1556,16 +1556,16 @@
       <c r="C22" t="s">
         <v>213</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>3.6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>4.8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>4.8</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -1579,16 +1579,16 @@
       <c r="C23" t="s">
         <v>217</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>3.4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>4.5</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1.7</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1602,16 +1602,16 @@
       <c r="C24" t="s">
         <v>217</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>3.4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>4.5</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>1.7</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1625,16 +1625,16 @@
       <c r="C25" t="s">
         <v>214</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>3.8</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>1.7</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1648,16 +1648,16 @@
       <c r="C26" t="s">
         <v>217</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>3.4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>4.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1.7</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1671,16 +1671,16 @@
       <c r="C27" t="s">
         <v>217</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>3.4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>4.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1.7</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -1697,13 +1697,13 @@
       <c r="D28" s="3">
         <v>1.6</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>4.3</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>2.6</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1717,16 +1717,16 @@
       <c r="C29" t="s">
         <v>216</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>8.6</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>10.5</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>10.7</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1740,16 +1740,16 @@
       <c r="C30" t="s">
         <v>213</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>3.6</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>4.8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>4.8</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -1763,16 +1763,16 @@
       <c r="C31" t="s">
         <v>214</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>3.8</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.7</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1786,16 +1786,16 @@
       <c r="C32" t="s">
         <v>215</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0.5</v>
       </c>
-      <c r="F32">
-        <v>5.5</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G32" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1809,16 +1809,16 @@
       <c r="C33" t="s">
         <v>215</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.5</v>
       </c>
-      <c r="F33">
-        <v>5.5</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G33" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1832,16 +1832,16 @@
       <c r="C34" t="s">
         <v>216</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>8.6</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>10.5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>10.7</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1858,13 +1858,13 @@
       <c r="D35" s="3">
         <v>1.6</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>4.3</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>2.6</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1878,16 +1878,16 @@
       <c r="C36" t="s">
         <v>216</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>8.6</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>10.5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>10.7</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1901,16 +1901,16 @@
       <c r="C37" t="s">
         <v>214</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>3.8</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1.7</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -1924,16 +1924,16 @@
       <c r="C38" t="s">
         <v>216</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>8.6</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>10.5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>10.7</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1947,16 +1947,16 @@
       <c r="C39" t="s">
         <v>215</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>0.5</v>
       </c>
-      <c r="F39">
-        <v>5.5</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G39" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -1970,16 +1970,16 @@
       <c r="C40" t="s">
         <v>216</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>8.6</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>10.5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>10.7</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -1993,16 +1993,16 @@
       <c r="C41" t="s">
         <v>214</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>3.8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>1.7</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2016,16 +2016,16 @@
       <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>8.6</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>10.5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>10.7</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2042,13 +2042,13 @@
       <c r="D43" s="3">
         <v>1.6</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>4.3</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>2.6</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2062,16 +2062,16 @@
       <c r="C44" t="s">
         <v>216</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>8.6</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>10.5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>10.7</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2085,16 +2085,16 @@
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>3.8</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>1.7</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2108,16 +2108,16 @@
       <c r="C46" t="s">
         <v>214</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>3.8</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>5</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>1.7</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2131,16 +2131,16 @@
       <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>0.5</v>
       </c>
-      <c r="F47">
-        <v>5.5</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G47" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2154,16 +2154,16 @@
       <c r="C48" t="s">
         <v>213</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>3.6</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>4.8</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>4.8</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -2177,16 +2177,16 @@
       <c r="C49" t="s">
         <v>216</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>8.6</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>10.5</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>10.7</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2200,16 +2200,16 @@
       <c r="C50" t="s">
         <v>214</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>3.8</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>5</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>1.7</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2223,16 +2223,16 @@
       <c r="C51" t="s">
         <v>214</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>3.8</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>1.7</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2246,16 +2246,16 @@
       <c r="C52" t="s">
         <v>215</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>0.5</v>
       </c>
-      <c r="F52">
-        <v>5.5</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G52" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2269,16 +2269,16 @@
       <c r="C53" t="s">
         <v>216</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>8.6</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>10.5</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>10.7</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       <c r="C54" t="s">
         <v>213</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>3.6</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>4.8</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>4.8</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -2315,16 +2315,16 @@
       <c r="C55" t="s">
         <v>216</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>8.6</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>10.5</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>10.7</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2338,16 +2338,16 @@
       <c r="C56" t="s">
         <v>215</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0.5</v>
       </c>
-      <c r="F56">
-        <v>5.5</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G56" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2361,16 +2361,16 @@
       <c r="C57" t="s">
         <v>216</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>8.6</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>10.5</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>10.7</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2384,16 +2384,16 @@
       <c r="C58" t="s">
         <v>216</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>8.6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>10.5</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>10.7</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2407,16 +2407,16 @@
       <c r="C59" t="s">
         <v>216</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>8.6</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>10.5</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>10.7</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2433,13 +2433,13 @@
       <c r="D60" s="3">
         <v>1.6</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>4.3</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>2.6</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2453,16 +2453,16 @@
       <c r="C61" t="s">
         <v>216</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>8.6</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>10.5</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>10.7</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2476,16 +2476,16 @@
       <c r="C62" t="s">
         <v>215</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>0.5</v>
       </c>
-      <c r="F62">
-        <v>5.5</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G62" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2499,16 +2499,16 @@
       <c r="C63" t="s">
         <v>217</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>3.4</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>4.5</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>1.7</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -2522,16 +2522,16 @@
       <c r="C64" t="s">
         <v>214</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>3.8</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>5</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>1.7</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2545,16 +2545,16 @@
       <c r="C65" t="s">
         <v>217</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>3.4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>4.5</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>1.7</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -2568,16 +2568,16 @@
       <c r="C66" t="s">
         <v>216</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>8.6</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>10.5</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>10.7</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2591,16 +2591,16 @@
       <c r="C67" t="s">
         <v>217</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>3.4</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>4.5</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>1.7</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -2614,16 +2614,16 @@
       <c r="C68" t="s">
         <v>216</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>8.6</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>10.5</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>10.7</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="D69" s="3">
         <v>1.6</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>4.3</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>2.6</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2660,16 +2660,16 @@
       <c r="C70" t="s">
         <v>217</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>3.4</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>4.5</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>1.7</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -2683,16 +2683,16 @@
       <c r="C71" t="s">
         <v>216</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>8.6</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>10.5</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>10.7</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2709,13 +2709,13 @@
       <c r="D72" s="3">
         <v>1.6</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>4.3</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>2.6</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2729,16 +2729,16 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>8.6</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>10.5</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>10.7</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2752,16 +2752,16 @@
       <c r="C74" t="s">
         <v>217</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>3.4</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>4.5</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>1.7</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -2775,16 +2775,16 @@
       <c r="C75" t="s">
         <v>213</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>3.6</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>4.8</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>4.8</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -2798,16 +2798,16 @@
       <c r="C76" t="s">
         <v>216</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>8.6</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>10.5</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>10.7</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>6.5</v>
       </c>
     </row>
@@ -2821,16 +2821,16 @@
       <c r="C77" t="s">
         <v>215</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>0.5</v>
       </c>
-      <c r="F77">
-        <v>5.5</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G77" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2844,16 +2844,16 @@
       <c r="C78" t="s">
         <v>214</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>3.8</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>5</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>1.7</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2867,16 +2867,16 @@
       <c r="C79" t="s">
         <v>215</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>0.5</v>
       </c>
-      <c r="F79">
-        <v>5.5</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G79" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2893,13 +2893,13 @@
       <c r="D80" s="3">
         <v>1.6</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>4.3</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>2.6</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2913,16 +2913,16 @@
       <c r="C81" t="s">
         <v>214</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>3.8</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>5</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>1.7</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -2936,16 +2936,16 @@
       <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>0.5</v>
       </c>
-      <c r="F82">
-        <v>5.5</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G82" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
       <c r="C83" t="s">
         <v>215</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>0.5</v>
       </c>
-      <c r="F83">
-        <v>5.5</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G83" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -2982,16 +2982,16 @@
       <c r="C84" t="s">
         <v>214</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>3.8</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>5</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>1.7</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3005,16 +3005,16 @@
       <c r="C85" t="s">
         <v>215</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>0.5</v>
       </c>
-      <c r="F85">
-        <v>5.5</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G85" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3031,13 +3031,13 @@
       <c r="D86" s="3">
         <v>1.6</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>4.3</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>2.6</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3051,16 +3051,16 @@
       <c r="C87" t="s">
         <v>213</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>3.6</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>4.8</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>4.8</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3074,16 +3074,16 @@
       <c r="C88" t="s">
         <v>214</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>3.8</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>5</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>1.7</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3097,16 +3097,16 @@
       <c r="C89" t="s">
         <v>213</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>3.6</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>4.8</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>4.8</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3120,16 +3120,16 @@
       <c r="C90" t="s">
         <v>214</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>3.8</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>1.7</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3143,16 +3143,16 @@
       <c r="C91" t="s">
         <v>214</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>3.8</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>5</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>1.7</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3166,16 +3166,16 @@
       <c r="C92" t="s">
         <v>215</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>0.5</v>
       </c>
-      <c r="F92">
-        <v>5.5</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G92" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3189,16 +3189,16 @@
       <c r="C93" t="s">
         <v>213</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>3.6</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>4.8</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>4.8</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3212,16 +3212,16 @@
       <c r="C94" t="s">
         <v>213</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>3.6</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>4.8</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>4.8</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3235,16 +3235,16 @@
       <c r="C95" t="s">
         <v>217</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>3.4</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>4.5</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>1.7</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -3258,16 +3258,16 @@
       <c r="C96" t="s">
         <v>213</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>3.6</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>4.8</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>4.8</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3281,16 +3281,16 @@
       <c r="C97" t="s">
         <v>214</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>3.8</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>5</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>1.7</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3307,13 +3307,13 @@
       <c r="D98" s="3">
         <v>1.6</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>4.3</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>2.6</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3327,16 +3327,16 @@
       <c r="C99" t="s">
         <v>214</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>3.8</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>5</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>1.7</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3350,16 +3350,16 @@
       <c r="C100" t="s">
         <v>213</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>3.6</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>4.8</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>4.8</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -3373,16 +3373,16 @@
       <c r="C101" t="s">
         <v>215</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>0.5</v>
       </c>
-      <c r="F101">
-        <v>5.5</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G101" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3399,13 +3399,13 @@
       <c r="D102" s="3">
         <v>1.6</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>4.3</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>2.6</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3422,13 +3422,13 @@
       <c r="D103" s="3">
         <v>1.6</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>4.3</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>2.6</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3442,16 +3442,16 @@
       <c r="C104" t="s">
         <v>214</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>3.8</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>5</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>1.7</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>6.4</v>
       </c>
     </row>
@@ -3465,16 +3465,16 @@
       <c r="C105" t="s">
         <v>215</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>0.5</v>
       </c>
-      <c r="F105">
-        <v>5.5</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G105" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3491,13 +3491,13 @@
       <c r="D106" s="3">
         <v>1.6</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>4.3</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>2.6</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3514,13 +3514,13 @@
       <c r="D107" s="3">
         <v>1.6</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>4.3</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>2.6</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3534,16 +3534,16 @@
       <c r="C108" t="s">
         <v>215</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>0.5</v>
       </c>
-      <c r="F108">
-        <v>5.5</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G108" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3560,13 +3560,13 @@
       <c r="D109" s="3">
         <v>1.6</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>4.3</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>2.6</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3580,16 +3580,16 @@
       <c r="C110" t="s">
         <v>213</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>3.6</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>4.8</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>4.8</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>9.6</v>
       </c>
     </row>
